--- a/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
+++ b/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>UserId</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Vinay@94</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@fb</t>
   </si>
 </sst>
 </file>
@@ -397,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -421,12 +424,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -435,6 +446,8 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -448,9 +461,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -458,7 +471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>

--- a/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
+++ b/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UserId</t>
   </si>
@@ -29,9 +29,6 @@
     <t>vi@WL90444</t>
   </si>
   <si>
-    <t>vinay@gmail.com</t>
-  </si>
-  <si>
     <t>vinay.vg@gmail.com</t>
   </si>
   <si>
@@ -44,10 +41,16 @@
     <t>general@94</t>
   </si>
   <si>
-    <t>Vinay@94</t>
-  </si>
-  <si>
     <t>P@ssw0rd@fb</t>
+  </si>
+  <si>
+    <t>sid.sky182@gmail.com</t>
+  </si>
+  <si>
+    <t>P@21234</t>
+  </si>
+  <si>
+    <t>vijay.sky182@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +421,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -426,10 +429,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -437,17 +440,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -465,18 +468,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
